--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2972820.404626348</v>
+        <v>2991195.094092468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818569.875074532</v>
+        <v>8818569.87507453</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>134.877687049794</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>306.1737482251423</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>76.71587097450795</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>96.36136743208897</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.21069871778148</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>49.75696784121567</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>63.88773387209174</v>
       </c>
       <c r="F8" t="n">
-        <v>37.06893718631166</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.7882487092398</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>192.025086690184</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>106.7148935340135</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>65.98416773390311</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>249.5670185273386</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>29.9874766139497</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>220.1674819419257</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>84.81021120445897</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>97.24017938133927</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y28" t="n">
-        <v>167.6530492049045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>111.8652689647497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>64.68017691661288</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.75434178245079</v>
+        <v>5.453145394759769</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784697</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>62.99794830693271</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>67.84064279592573</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>27.82366538098766</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>209.4552226741777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>39.54523647285953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.78450997562638</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>94.4725457375514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4183,16 +4183,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>170.958110982723</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2505.880313619631</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2287.245646591693</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2033.483861229785</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1702.420973886214</v>
       </c>
       <c r="W2" t="n">
-        <v>1408.245851250347</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.245851250347</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>650.638205444305</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U4" t="n">
-        <v>650.638205444305</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>650.638205444305</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>650.638205444305</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.344242153657</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>903.3817252132458</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353781</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353781</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.483574129469</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.483574129469</v>
+        <v>1532.660397864091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153657</v>
+        <v>1532.660397864091</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.578376364604</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="C8" t="n">
-        <v>867.6158594241924</v>
+        <v>1228.845773759393</v>
       </c>
       <c r="D8" t="n">
-        <v>509.3501608174419</v>
+        <v>870.5800751526426</v>
       </c>
       <c r="E8" t="n">
-        <v>509.3501608174419</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428726</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>501.5782531723953</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>351.4616137600595</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1193.876433089239</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1193.876433089239</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1193.876433089239</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>939.1919448833521</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>649.7747748463914</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.6647764207315</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429516</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>577.4573555642615</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>577.4573555642615</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>356.6647764207315</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,16 +5595,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>392.0201325405893</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4067.185420387768</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>4067.185420387768</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>3917.068780975433</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>3769.155687393039</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3769.155687393039</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3600.98036571286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.859459491672</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4549.859459491672</v>
+        <v>1076.60486457252</v>
       </c>
       <c r="V22" t="n">
-        <v>4295.174971285785</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="W22" t="n">
-        <v>4295.174971285785</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X22" t="n">
-        <v>4067.185420387768</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y22" t="n">
-        <v>4067.185420387768</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805486</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028746</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250805</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095318</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>3262.052667528207</v>
+        <v>2851.519259961212</v>
       </c>
       <c r="M24" t="n">
-        <v>3569.372800808169</v>
+        <v>3158.839393241174</v>
       </c>
       <c r="N24" t="n">
-        <v>3899.235428472202</v>
+        <v>3963.250971505325</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774861</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557071</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014294</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4073.011257337223</v>
+        <v>499.7332479750899</v>
       </c>
       <c r="C25" t="n">
-        <v>3904.075074409316</v>
+        <v>330.797065047183</v>
       </c>
       <c r="D25" t="n">
-        <v>3753.95843499698</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4651.557066160625</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4362.428427374183</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>4362.428427374183</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W25" t="n">
-        <v>4073.011257337223</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X25" t="n">
-        <v>4073.011257337223</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y25" t="n">
-        <v>4073.011257337223</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6218,7 +6218,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6306,25 +6306,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.2416896507652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293934</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>933.2366688293934</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>933.2366688293934</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>763.890154481005</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.2811958984813</v>
+        <v>3741.086798021098</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>3572.150615093191</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.722239872251</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.722239872251</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.722239872251</v>
+        <v>4371.517392892885</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.722239872251</v>
+        <v>4143.527841994868</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.929660728721</v>
+        <v>3922.735262851338</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,10 +6701,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,16 +6780,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.509052552801</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1448.659359666538</v>
+        <v>1493.408042886428</v>
       </c>
       <c r="S34" t="n">
-        <v>1248.73934958209</v>
+        <v>1293.48803280198</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.73934958209</v>
+        <v>1069.702617591486</v>
       </c>
       <c r="U34" t="n">
-        <v>959.6107107956485</v>
+        <v>1069.702617591486</v>
       </c>
       <c r="V34" t="n">
-        <v>704.9262225897617</v>
+        <v>815.018129385599</v>
       </c>
       <c r="W34" t="n">
-        <v>415.509052552801</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="X34" t="n">
-        <v>415.509052552801</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.509052552801</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,13 +6926,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>940.1463453738957</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4055.714583485207</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C37" t="n">
-        <v>3886.7784005573</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>3886.7784005573</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974907</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4686.145178356994</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.145178356994</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4686.145178356994</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4686.145178356994</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4686.145178356994</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>4458.155627458977</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>4237.363048315447</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>303.4575213834695</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L39" t="n">
-        <v>550.2226492899335</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>3787.794754287117</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>3787.794754287117</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>3637.678114874781</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>3637.678114874781</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>3637.678114874781</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3637.678114874781</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3487.260106422725</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="W40" t="n">
-        <v>208.7516828383384</v>
+        <v>4236.576884328664</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>4008.587333430647</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>3787.794754287117</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.05892046586</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222748</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3907.32413661521</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>4237.186764279242</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774861</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3799.634725086988</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C43" t="n">
-        <v>3799.634725086988</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D43" t="n">
-        <v>3649.518085674652</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E43" t="n">
-        <v>3609.573402368733</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014294</v>
+        <v>1455.699593814845</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014294</v>
+        <v>1455.699593814845</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014294</v>
+        <v>1455.699593814845</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.725934227852</v>
+        <v>1455.699593814845</v>
       </c>
       <c r="V43" t="n">
-        <v>4317.041446021965</v>
+        <v>1201.015105608958</v>
       </c>
       <c r="W43" t="n">
-        <v>4027.624275985005</v>
+        <v>1201.015105608958</v>
       </c>
       <c r="X43" t="n">
-        <v>3799.634725086988</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="Y43" t="n">
-        <v>3799.634725086988</v>
+        <v>973.0255547109413</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079764</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4340.141453847861</v>
+        <v>3925.39953279455</v>
       </c>
       <c r="C46" t="n">
-        <v>4171.205270919954</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="D46" t="n">
-        <v>4021.088631507619</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="E46" t="n">
-        <v>3873.175537925225</v>
+        <v>3756.463349866644</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048911</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576118</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>4749.779469576118</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V46" t="n">
-        <v>4749.779469576118</v>
+        <v>4153.389083692568</v>
       </c>
       <c r="W46" t="n">
-        <v>4749.779469576118</v>
+        <v>4153.389083692568</v>
       </c>
       <c r="X46" t="n">
-        <v>4521.789918678101</v>
+        <v>3925.39953279455</v>
       </c>
       <c r="Y46" t="n">
-        <v>4521.789918678101</v>
+        <v>3925.39953279455</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>360.5026862907255</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>230.7151863772034</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>104.6241510367934</v>
+        <v>80.50021372615163</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,19 +9954,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.7151863772034</v>
+        <v>398.9629823660891</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10197,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>145.2351313103792</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>15.83804904622843</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>180.0237016735873</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>104.8749102765748</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>116.908739053196</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>63.70531975413776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5.895723293419252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>60.53192756461435</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>220.5388306026879</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>130.450358662183</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>36.9559798092524</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.9263517535864</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>66.06987045665161</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.80526181375339</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>124.30738167705</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>51.71984429841029</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.93160414719031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>36.75020405346265</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>221.5571754819645</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.21001062134199</v>
+        <v>104.511207009033</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>134.9228616766705</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>150.7440105561691</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.59558008328432</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>77.06777566241325</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25786,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>106.8887261737096</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>67.17984242816641</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,13 +25840,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>50.94850228537985</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>81.17953234110502</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764883</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
@@ -26341,16 +26341,16 @@
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672194</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.54555230236</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029918</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230229</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26503,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172486.5956251889</v>
+        <v>-169958.2744617465</v>
       </c>
       <c r="C6" t="n">
-        <v>417481.2835893554</v>
+        <v>420009.6047527976</v>
       </c>
       <c r="D6" t="n">
-        <v>417481.2835893554</v>
+        <v>420009.6047527979</v>
       </c>
       <c r="E6" t="n">
-        <v>-3287.778648692882</v>
+        <v>-1252.959410695796</v>
       </c>
       <c r="F6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="G6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662003</v>
       </c>
       <c r="H6" t="n">
-        <v>521872.2578282037</v>
+        <v>523907.0770662001</v>
       </c>
       <c r="I6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="J6" t="n">
-        <v>345449.0386356108</v>
+        <v>347483.8578736075</v>
       </c>
       <c r="K6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="L6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="M6" t="n">
-        <v>387071.2425943663</v>
+        <v>389106.0618323636</v>
       </c>
       <c r="N6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662008</v>
       </c>
       <c r="O6" t="n">
-        <v>521872.2578282037</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="P6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26805,10 +26805,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26823,10 +26823,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.53802575917749</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>43.06722049227074</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>148.3192344835763</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>258.321674188594</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.5204019606875</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>202.3806754826123</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.98780970275087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>318.04263620017</v>
       </c>
       <c r="F8" t="n">
-        <v>369.8071085553998</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,10 +27901,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>260.0160353619005</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,7 +35422,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>609.7603912467498</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35726,19 +35726,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,19 +35963,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>563.9097597752163</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>353.8818559928177</v>
+        <v>329.757918682176</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1395634276697</v>
+        <v>709.3873594165555</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36695,7 +36695,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>394.4928362664036</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>166.4134876341677</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>490.4480787240536</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>354.1326152325991</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>399.2724412943041</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066724.763757274</v>
+        <v>3059707.748865562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.176934332492396</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>41.68001987778678</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>23.37809923434677</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.9467445392464</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>79.44408807900594</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>127.0044127072327</v>
+        <v>113.4450031752936</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>122.7253106933282</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702121</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113187</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.56420282848773</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>205.7438565463906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>170.9606397709141</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7158546988689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896925</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>23.57171720028827</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.82967168584614</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.7169013050008</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>137.4124440129374</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>103.3711308138374</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.674683745839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3474,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>3.679536914989403</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>168.0025262783761</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>25.03576683016852</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.90766377890321</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.33624026600961</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3318138408822</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2693.940066439947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2693.940066439947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2475.30539941201</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2475.30539941201</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2475.30539941201</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.536744141896</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.070985880816</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1358.931653905004</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>957.4466652737744</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>957.4466652737744</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>301.5789155018414</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>287.6555114404323</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1344.046505337896</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>570.4247794971948</v>
+        <v>584.1211527617797</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.286147953398</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.323631012987</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548714</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.3517462786</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.88598801752</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1915.88598801752</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170816</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359546</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747033</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692478</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961328</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.428410242399</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673408</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036283</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661591</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572627</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315293</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414845</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435188</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152624</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207636</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036442</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245966</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1464.002934367511</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1240.217519157017</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1240.217519157017</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>985.5330309511296</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>696.115860914169</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227924</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>667.105035803206</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>377.6878657662453</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X16" t="n">
-        <v>377.6878657662453</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y16" t="n">
-        <v>377.6878657662453</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5539,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452865</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359329</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3665.022319751791</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3994.884947415824</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774861</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688073</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383447</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383447</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>638.369141907976</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>415.8299478944159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035281</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293938</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8299478944159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8299478944159</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4054.319213292874</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>4054.319213292874</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>3904.202573880539</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.289480298145</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746786</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014294</v>
+        <v>1354.757784391235</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014294</v>
+        <v>1130.972369180741</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.725934227852</v>
+        <v>841.8437303942993</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.725934227852</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="W25" t="n">
-        <v>4282.308764190891</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X25" t="n">
-        <v>4054.319213292874</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>4054.319213292874</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6217,34 +6217,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4019.137726741514</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="C28" t="n">
-        <v>4019.137726741514</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="D28" t="n">
-        <v>3869.021087329178</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746785</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746785</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4645.364185925777</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4421.578770715283</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.578770715283</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>4421.578770715283</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>4421.578770715283</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X28" t="n">
-        <v>4421.578770715283</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y28" t="n">
-        <v>4200.786191571753</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>339.7502131046266</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>953.6472828615151</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253976</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,7 +6648,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790661</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2302.23751609332</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4019.137726741515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4019.137726741515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3869.021087329179</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4495.094981370232</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4205.677811333271</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4205.677811333271</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4019.137726741515</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,22 +6949,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>303.4575213834703</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>550.2226492899342</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698957</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4054.493082861372</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>4054.493082861372</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>3904.376443449037</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>3756.463349866644</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368733</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4746.062765621584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4746.062765621584</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4456.934126835142</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>4456.934126835142</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W37" t="n">
-        <v>4456.934126835142</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X37" t="n">
-        <v>4456.934126835142</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>4236.141547691612</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845917</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.5941600866649</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>438.5941600866649</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909233</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227915</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169047</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W40" t="n">
-        <v>620.2426249169047</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X40" t="n">
-        <v>620.2426249169047</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y40" t="n">
-        <v>620.2426249169047</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333286</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>870.7229774352684</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7633,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141285</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4061.516185047361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3892.580002119454</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3892.580002119454</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3867.997941244696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.725934227851</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4282.308764190891</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4282.308764190891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4061.516185047361</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415606</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.73797368291355</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>124.3400780863224</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>297.2466435761013</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>104.8749102765742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>199.6230805871083</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>182.034074286795</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>52.49733361305402</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.47535963978319</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>15.83804904622937</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711669</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>308.1251096272045</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504526</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>94.13752431970721</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714842</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>285.1031356539339</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3566071551155</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>46.39378677743741</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>47.62401358118069</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X19" t="n">
-        <v>115.9938006901683</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>143.6751038983396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>110.5913763370851</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>55.20390867860249</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.021518633631757</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>94.54967916976584</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.9099696062558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.2412730686139</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>84.13511704545186</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>123.5797061880438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.3159167792688</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>172.6769895731916</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>122.0977223805596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.5123764883</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672191</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.82703532317577e-11</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230225</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230225</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230234</v>
       </c>
-      <c r="N4" t="n">
-        <v>29303.54555230235</v>
-      </c>
       <c r="O4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-169958.2744617466</v>
       </c>
       <c r="C6" t="n">
-        <v>420009.6047527979</v>
+        <v>420009.6047527981</v>
       </c>
       <c r="D6" t="n">
         <v>420009.6047527979</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695796</v>
+        <v>-2227.550670417423</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662005</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="H6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="J6" t="n">
-        <v>347483.8578736076</v>
+        <v>346509.2666138862</v>
       </c>
       <c r="K6" t="n">
-        <v>523907.0770662002</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="L6" t="n">
-        <v>523907.0770662009</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323631</v>
+        <v>388131.4705726418</v>
       </c>
       <c r="N6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="O6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="P6" t="n">
-        <v>523907.0770662001</v>
+        <v>522932.4858064784</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.3014682423193</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>125.5668012208411</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>228.7595440894812</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.73629708143659</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>244.4786846853512</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>19.66077927292511</v>
+        <v>33.22018880486422</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>231.9577309273548</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.4685793061307</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787217</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.033794153969713e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,43 +34441,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770685</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.7510064679877</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>457.5346514843354</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>579.6103458172096</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>354.1326152325985</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>510.0474576375747</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>389.1274892183196</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>203.0727722009931</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>236.5687745713078</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>166.4134876341685</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130335</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>590.4888118683125</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109091</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>427.3320977177199</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2977090519466</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3059707.748865562</v>
+        <v>3064647.011714595</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818569.875074532</v>
+        <v>8818569.87507453</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>41.68001987778678</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>245.1595743446618</v>
       </c>
       <c r="H5" t="n">
-        <v>79.44408807900594</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.091193529251349</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.4450031752936</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.18755572620762</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.76935934992291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113187</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>135.4958706305997</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.9606397709141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185857</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7169013050008</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>174.4301083948421</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.4124440129374</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>201.6473422926464</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>168.0025262783761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.64843562452401</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
         <v>74.81188663097703</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="5">
@@ -4546,25 +4546,25 @@
         <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1456.618771496444</v>
+        <v>1456.618771496443</v>
       </c>
       <c r="D5" t="n">
         <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>712.564820291449</v>
+        <v>712.5648202914485</v>
       </c>
       <c r="F5" t="n">
-        <v>301.5789155018414</v>
+        <v>301.578915501841</v>
       </c>
       <c r="G5" t="n">
-        <v>287.6555114404323</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,13 +4591,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
         <v>2212.181128500977</v>
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>216.8339741143508</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>216.8339741143508</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>59.08560154688095</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>59.08560154688095</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>584.1211527617797</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2453.632251513181</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2453.632251513181</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2453.632251513181</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080548</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,34 +5293,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5363,7 +5363,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5436,7 +5436,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688073</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324578</v>
+        <v>954.8146123150555</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324578</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123426</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,49 +5755,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1354.757784391235</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1130.972369180741</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>841.8437303942993</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>587.1592421884125</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>587.1592421884125</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273991</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>554.6108700904385</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6454,34 +6454,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6557,7 +6557,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6651,19 +6651,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6794,7 +6794,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7031,7 +7031,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>705.2275916294825</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>415.8104215925219</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7268,7 +7268,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.685527502828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.685527502828</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.685527502828</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502828</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.001039296941</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7408,34 +7408,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7505,7 +7505,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>531.109187020113</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>303.1196361220957</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,22 +7633,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7742,7 +7742,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7836,7 +7836,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>90.21378475843741</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.62401358118069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.3938331833852</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871786</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.20390867860249</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>112.0928899417489</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.021518633631757</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.59001010593096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>84.13511704545186</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.3159167792688</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>677359.4601380337</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672192</v>
-      </c>
       <c r="H2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="N2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="O2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,16 +26447,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617466</v>
+        <v>-169958.2744617464</v>
       </c>
       <c r="C6" t="n">
+        <v>420009.6047527979</v>
+      </c>
+      <c r="D6" t="n">
         <v>420009.6047527981</v>
       </c>
-      <c r="D6" t="n">
-        <v>420009.6047527979</v>
-      </c>
       <c r="E6" t="n">
-        <v>-2227.550670417423</v>
+        <v>-1350.41853666796</v>
       </c>
       <c r="F6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="G6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="H6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="I6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402285</v>
       </c>
       <c r="J6" t="n">
-        <v>346509.2666138862</v>
+        <v>347386.3987476358</v>
       </c>
       <c r="K6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="L6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="M6" t="n">
-        <v>388131.4705726418</v>
+        <v>389008.6027063912</v>
       </c>
       <c r="N6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402285</v>
       </c>
       <c r="O6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402283</v>
       </c>
       <c r="P6" t="n">
-        <v>522932.4858064784</v>
+        <v>523809.6179402286</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>125.5668012208411</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>177.8934269655253</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>168.6245956761332</v>
       </c>
       <c r="H5" t="n">
-        <v>244.4786846853512</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>40.10876565928566</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>33.22018880486422</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>204.2607646314502</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>321.4685793061307</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,16 +31998,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927188</v>
@@ -32016,19 +32016,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354894</v>
@@ -32074,7 +32074,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
@@ -32083,19 +32083,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710957</v>
@@ -32104,13 +32104,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,19 +32168,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336902</v>
@@ -32189,7 +32189,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081121</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980131</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209233</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35816,16 +35816,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36366,22 +36366,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
